--- a/data/transactions.xlsx
+++ b/data/transactions.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franklintan/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/franklintan/PycharmProjects/Classifying-Impulse-Spending-From-Your-Bank-Statement/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08FAF861-475A-B94E-8B15-D74C792CD48D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80680454-57EE-A64B-8AF3-58B00A0FCE71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="38400" yWindow="0" windowWidth="38400" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="3" r:id="rId1"/>
@@ -1565,58 +1565,58 @@
     <t>Housing</t>
   </si>
   <si>
-    <t>Transportation - Gas</t>
-  </si>
-  <si>
-    <t>Transportation - Insurance</t>
-  </si>
-  <si>
-    <t>Transportation - Loan</t>
-  </si>
-  <si>
-    <t>Transportation - Maintenance</t>
-  </si>
-  <si>
-    <t>Transportation - Parking &amp; Tolls</t>
-  </si>
-  <si>
-    <t>Transportation - Travel</t>
-  </si>
-  <si>
-    <t>Food - Groceries</t>
-  </si>
-  <si>
     <t>WHOLE Food - GroceriesS MARKET  MILFORD             CT</t>
   </si>
   <si>
-    <t>Food - Restaurants</t>
-  </si>
-  <si>
-    <t>Personal - Books</t>
-  </si>
-  <si>
     <t>INDIGO Personal - Books        WILMINGTON          DE</t>
   </si>
   <si>
     <t>THRIFT Personal - Books GLOBAL,TUKWILA             WA</t>
   </si>
   <si>
-    <t>Personal - Clothing</t>
-  </si>
-  <si>
-    <t>Personal - Art</t>
-  </si>
-  <si>
-    <t>Personal - Entertainment</t>
-  </si>
-  <si>
-    <t>Personal - Electronics</t>
-  </si>
-  <si>
-    <t>Personal - Miscellaneous</t>
-  </si>
-  <si>
-    <t>Personal - Furniture</t>
+    <t>Groceries</t>
+  </si>
+  <si>
+    <t>Restaurants</t>
+  </si>
+  <si>
+    <t>Art</t>
+  </si>
+  <si>
+    <t>Books</t>
+  </si>
+  <si>
+    <t>Clothing</t>
+  </si>
+  <si>
+    <t>Electronics</t>
+  </si>
+  <si>
+    <t>Entertainment</t>
+  </si>
+  <si>
+    <t>Furniture</t>
+  </si>
+  <si>
+    <t>Misc</t>
+  </si>
+  <si>
+    <t>Gas</t>
+  </si>
+  <si>
+    <t>Car Insurance</t>
+  </si>
+  <si>
+    <t>Car Loan</t>
+  </si>
+  <si>
+    <t>Car Maintenance</t>
+  </si>
+  <si>
+    <t>Parking &amp; Tolls</t>
+  </si>
+  <si>
+    <t>Travel</t>
   </si>
 </sst>
 </file>
@@ -1822,69 +1822,6 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="10">
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <numFmt numFmtId="19" formatCode="m/d/yy"/>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFF2F2F2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color rgb="FFF2F2F2"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="4"/>
-        </top>
-        <bottom/>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color indexed="8"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="none"/>
-      </font>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor indexed="64"/>
-          <bgColor rgb="FFF2F2F2"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <b val="0"/>
@@ -2122,6 +2059,69 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="19" formatCode="m/d/yy"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFF2F2F2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color rgb="FFF2F2F2"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="4"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color indexed="8"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="none"/>
+      </font>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor rgb="FFF2F2F2"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -2159,19 +2159,25 @@
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{96EDE4B9-EA57-5847-B8CA-6CC3633B91A4}" name="Table1" displayName="Table1" ref="A1:H1048576" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="A1:H1048576" xr:uid="{96EDE4B9-EA57-5847-B8CA-6CC3633B91A4}"/>
+  <autoFilter ref="A1:H1048576" xr:uid="{96EDE4B9-EA57-5847-B8CA-6CC3633B91A4}">
+    <filterColumn colId="7">
+      <filters>
+        <filter val="Utilities - Electric"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H335">
     <sortCondition ref="A1:A1048576"/>
   </sortState>
   <tableColumns count="8">
-    <tableColumn id="2" xr3:uid="{C5A7F4EC-2EA3-1241-A26A-44A0485CE288}" name="Date" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{25507E1C-2239-8744-A52F-A7FE2DDC4651}" name="Description" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{EFEB8D89-9B44-A443-A2FA-C1C36CFB9D71}" name="Amount" dataDxfId="7" dataCellStyle="Currency"/>
-    <tableColumn id="5" xr3:uid="{F9D224FE-D004-9C45-9225-1FBF83B454D2}" name="Address" dataDxfId="6"/>
-    <tableColumn id="6" xr3:uid="{234AF8A4-593D-3240-BB0A-ECF48EDD4234}" name="City/State" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{F55023A4-319C-3140-B3D7-BA8414B34696}" name="Zip Code" dataDxfId="4"/>
-    <tableColumn id="8" xr3:uid="{B213C95A-C965-8D4B-A82B-9E60D795704D}" name="Country" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{AD752030-442B-8F4C-8920-1CEC6B3D1AC9}" name="Category" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{C5A7F4EC-2EA3-1241-A26A-44A0485CE288}" name="Date" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{25507E1C-2239-8744-A52F-A7FE2DDC4651}" name="Description" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{EFEB8D89-9B44-A443-A2FA-C1C36CFB9D71}" name="Amount" dataDxfId="5" dataCellStyle="Currency"/>
+    <tableColumn id="5" xr3:uid="{F9D224FE-D004-9C45-9225-1FBF83B454D2}" name="Address" dataDxfId="4"/>
+    <tableColumn id="6" xr3:uid="{234AF8A4-593D-3240-BB0A-ECF48EDD4234}" name="City/State" dataDxfId="3"/>
+    <tableColumn id="7" xr3:uid="{F55023A4-319C-3140-B3D7-BA8414B34696}" name="Zip Code" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{B213C95A-C965-8D4B-A82B-9E60D795704D}" name="Country" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{AD752030-442B-8F4C-8920-1CEC6B3D1AC9}" name="Category" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2477,10 +2483,10 @@
   <dimension ref="A1:M335"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" zeroHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="15.1640625" style="14" customWidth="1"/>
     <col min="3" max="3" width="12.5" style="9" bestFit="1" customWidth="1"/>
@@ -2517,7 +2523,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A2" s="12">
         <v>44565</v>
       </c>
@@ -2532,7 +2538,7 @@
       </c>
       <c r="M2" s="3"/>
     </row>
-    <row r="3" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="12">
         <v>44565</v>
       </c>
@@ -2555,10 +2561,10 @@
         <v>12</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="32" x14ac:dyDescent="0.2">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="13">
         <v>44567</v>
       </c>
@@ -2584,7 +2590,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="64" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="12">
         <v>44570</v>
       </c>
@@ -2607,10 +2613,10 @@
         <v>12</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="13">
         <v>44571</v>
       </c>
@@ -2633,10 +2639,10 @@
         <v>12</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="13">
         <v>44571</v>
       </c>
@@ -2659,10 +2665,10 @@
         <v>12</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="12">
         <v>44572</v>
       </c>
@@ -2685,10 +2691,10 @@
         <v>12</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="12">
         <v>44573</v>
       </c>
@@ -2711,15 +2717,15 @@
         <v>12</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="64" x14ac:dyDescent="0.2">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13">
         <v>44573</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>488</v>
+        <v>479</v>
       </c>
       <c r="C10" s="5">
         <v>22.44</v>
@@ -2737,10 +2743,10 @@
         <v>12</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12">
         <v>44573</v>
       </c>
@@ -2763,10 +2769,10 @@
         <v>12</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="13">
         <v>44573</v>
       </c>
@@ -2788,11 +2794,11 @@
       <c r="G12" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H12" s="2" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="64" x14ac:dyDescent="0.2">
+      <c r="H12" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12">
         <v>44573</v>
       </c>
@@ -2815,10 +2821,10 @@
         <v>12</v>
       </c>
       <c r="H13" s="1" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="13">
         <v>44573</v>
       </c>
@@ -2840,11 +2846,11 @@
       <c r="G14" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H14" s="2" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" ht="64" x14ac:dyDescent="0.2">
+      <c r="H14" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="12">
         <v>44574</v>
       </c>
@@ -2867,10 +2873,10 @@
         <v>12</v>
       </c>
       <c r="H15" s="1" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" ht="48" x14ac:dyDescent="0.2">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="13">
         <v>44574</v>
       </c>
@@ -2892,11 +2898,11 @@
       <c r="G16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H16" s="2" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="H16" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="13">
         <v>44575</v>
       </c>
@@ -2919,10 +2925,10 @@
         <v>12</v>
       </c>
       <c r="H17" s="2" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="12">
         <v>44577</v>
       </c>
@@ -2945,10 +2951,10 @@
         <v>12</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="13">
         <v>44578</v>
       </c>
@@ -2971,10 +2977,10 @@
         <v>12</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="11">
         <v>44579</v>
       </c>
@@ -2985,10 +2991,10 @@
         <v>173</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="11">
         <v>44579</v>
       </c>
@@ -2999,10 +3005,10 @@
         <v>116</v>
       </c>
       <c r="H21" s="8" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="12">
         <v>44584</v>
       </c>
@@ -3028,7 +3034,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="13">
         <v>44585</v>
       </c>
@@ -3051,10 +3057,10 @@
         <v>12</v>
       </c>
       <c r="H23" s="2" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" s="12">
         <v>44588</v>
       </c>
@@ -3077,10 +3083,10 @@
         <v>12</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="13">
         <v>44589</v>
       </c>
@@ -3103,10 +3109,10 @@
         <v>12</v>
       </c>
       <c r="H25" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="12">
         <v>44589</v>
       </c>
@@ -3129,10 +3135,10 @@
         <v>12</v>
       </c>
       <c r="H26" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="13">
         <v>44589</v>
       </c>
@@ -3154,11 +3160,11 @@
       <c r="G27" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H27" s="2" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="H27" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="12">
         <v>44591</v>
       </c>
@@ -3180,11 +3186,11 @@
       <c r="G28" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H28" s="1" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="H28" s="2" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="11">
         <v>44592</v>
       </c>
@@ -3198,7 +3204,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="30" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="12">
         <v>44592</v>
       </c>
@@ -3221,10 +3227,10 @@
         <v>12</v>
       </c>
       <c r="H30" s="1" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="12">
         <v>44592</v>
       </c>
@@ -3247,10 +3253,10 @@
         <v>12</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="32" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="13">
         <v>44592</v>
       </c>
@@ -3273,10 +3279,10 @@
         <v>12</v>
       </c>
       <c r="H32" s="2" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="33" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="12">
         <v>44592</v>
       </c>
@@ -3299,10 +3305,10 @@
         <v>12</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="34" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="13">
         <v>44592</v>
       </c>
@@ -3325,10 +3331,10 @@
         <v>12</v>
       </c>
       <c r="H34" s="2" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="35" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" s="13">
         <v>44593</v>
       </c>
@@ -3350,11 +3356,11 @@
       <c r="G35" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H35" s="2" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="36" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="H35" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="13">
         <v>44594</v>
       </c>
@@ -3376,16 +3382,16 @@
       <c r="G36" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H36" s="2" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+      <c r="H36" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="12">
         <v>44595</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
       <c r="C37" s="4">
         <v>11.65</v>
@@ -3403,10 +3409,10 @@
         <v>12</v>
       </c>
       <c r="H37" s="1" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="38" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="13">
         <v>44599</v>
       </c>
@@ -3429,7 +3435,7 @@
         <v>12</v>
       </c>
       <c r="H38" s="2" t="s">
-        <v>494</v>
+        <v>489</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="32" x14ac:dyDescent="0.2">
@@ -3446,7 +3452,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="40" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="12">
         <v>44603</v>
       </c>
@@ -3469,10 +3475,10 @@
         <v>12</v>
       </c>
       <c r="H40" s="1" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="11">
         <v>44609</v>
       </c>
@@ -3483,10 +3489,10 @@
         <v>173</v>
       </c>
       <c r="H41" s="8" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="42" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="11">
         <v>44609</v>
       </c>
@@ -3497,10 +3503,10 @@
         <v>116</v>
       </c>
       <c r="H42" s="8" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="43" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="13">
         <v>44620</v>
       </c>
@@ -3522,11 +3528,11 @@
       <c r="G43" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H43" s="2" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="44" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+      <c r="H43" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="12">
         <v>44623</v>
       </c>
@@ -3552,7 +3558,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="13">
         <v>44624</v>
       </c>
@@ -3574,11 +3580,11 @@
       <c r="G45" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H45" s="2" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="46" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="H45" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" s="11">
         <v>44627</v>
       </c>
@@ -3592,7 +3598,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="12">
         <v>44628</v>
       </c>
@@ -3615,10 +3621,10 @@
         <v>12</v>
       </c>
       <c r="H47" s="2" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="48" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="11">
         <v>44634</v>
       </c>
@@ -3632,7 +3638,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="11">
         <v>44635</v>
       </c>
@@ -3643,10 +3649,10 @@
         <v>173</v>
       </c>
       <c r="H49" s="8" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="11">
         <v>44635</v>
       </c>
@@ -3657,10 +3663,10 @@
         <v>116</v>
       </c>
       <c r="H50" s="8" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="13">
         <v>44635</v>
       </c>
@@ -3683,10 +3689,10 @@
         <v>12</v>
       </c>
       <c r="H51" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="12">
         <v>44636</v>
       </c>
@@ -3709,10 +3715,10 @@
         <v>12</v>
       </c>
       <c r="H52" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="13">
         <v>44640</v>
       </c>
@@ -3735,10 +3741,10 @@
         <v>12</v>
       </c>
       <c r="H53" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="12">
         <v>44643</v>
       </c>
@@ -3760,11 +3766,11 @@
       <c r="G54" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H54" s="2" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="55" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="H54" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="12">
         <v>44648</v>
       </c>
@@ -3786,11 +3792,11 @@
       <c r="G55" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H55" s="1" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="H55" s="2" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="13">
         <v>44648</v>
       </c>
@@ -3816,7 +3822,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="11">
         <v>44651</v>
       </c>
@@ -3830,7 +3836,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="12">
         <v>44651</v>
       </c>
@@ -3852,11 +3858,11 @@
       <c r="G58" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H58" s="1" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="H58" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="13">
         <v>44653</v>
       </c>
@@ -3879,10 +3885,10 @@
         <v>12</v>
       </c>
       <c r="H59" s="2" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" s="12">
         <v>44654</v>
       </c>
@@ -3908,7 +3914,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:8" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="13">
         <v>44655</v>
       </c>
@@ -3931,10 +3937,10 @@
         <v>12</v>
       </c>
       <c r="H61" s="2" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="12">
         <v>44656</v>
       </c>
@@ -3957,10 +3963,10 @@
         <v>12</v>
       </c>
       <c r="H62" s="2" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="12">
         <v>44657</v>
       </c>
@@ -3983,10 +3989,10 @@
         <v>12</v>
       </c>
       <c r="H63" s="1" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="13">
         <v>44657</v>
       </c>
@@ -4009,10 +4015,10 @@
         <v>12</v>
       </c>
       <c r="H64" s="2" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="12">
         <v>44659</v>
       </c>
@@ -4035,10 +4041,10 @@
         <v>12</v>
       </c>
       <c r="H65" s="2" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="12">
         <v>44660</v>
       </c>
@@ -4061,10 +4067,10 @@
         <v>12</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="13">
         <v>44660</v>
       </c>
@@ -4087,10 +4093,10 @@
         <v>12</v>
       </c>
       <c r="H67" s="1" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="13">
         <v>44662</v>
       </c>
@@ -4113,10 +4119,10 @@
         <v>12</v>
       </c>
       <c r="H68" s="2" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="12">
         <v>44669</v>
       </c>
@@ -4138,11 +4144,11 @@
       <c r="G69" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H69" s="1" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="H69" s="2" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="11">
         <v>44672</v>
       </c>
@@ -4153,10 +4159,10 @@
         <v>173</v>
       </c>
       <c r="H70" s="8" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A71" s="11">
         <v>44672</v>
       </c>
@@ -4167,10 +4173,10 @@
         <v>116</v>
       </c>
       <c r="H71" s="8" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="12">
         <v>44672</v>
       </c>
@@ -4193,10 +4199,10 @@
         <v>12</v>
       </c>
       <c r="H72" s="2" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="13">
         <v>44672</v>
       </c>
@@ -4219,10 +4225,10 @@
         <v>12</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="12">
         <v>44672</v>
       </c>
@@ -4244,11 +4250,11 @@
       <c r="G74" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H74" s="1" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="H74" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="13">
         <v>44673</v>
       </c>
@@ -4271,10 +4277,10 @@
         <v>12</v>
       </c>
       <c r="H75" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="12">
         <v>44673</v>
       </c>
@@ -4296,11 +4302,11 @@
       <c r="G76" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H76" s="1" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="H76" s="2" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="13">
         <v>44673</v>
       </c>
@@ -4322,11 +4328,11 @@
       <c r="G77" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H77" s="2" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="H77" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="12">
         <v>44673</v>
       </c>
@@ -4348,11 +4354,11 @@
       <c r="G78" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H78" s="2" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="H78" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="13">
         <v>44673</v>
       </c>
@@ -4374,11 +4380,11 @@
       <c r="G79" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H79" s="2" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="H79" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="13">
         <v>44674</v>
       </c>
@@ -4401,10 +4407,10 @@
         <v>12</v>
       </c>
       <c r="H80" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="81" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="12">
         <v>44674</v>
       </c>
@@ -4426,11 +4432,11 @@
       <c r="G81" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H81" s="1" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="H81" s="2" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A82" s="12">
         <v>44679</v>
       </c>
@@ -4456,7 +4462,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="12">
         <v>44681</v>
       </c>
@@ -4478,11 +4484,11 @@
       <c r="G83" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H83" s="1" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="84" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="H83" s="2" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="13">
         <v>44681</v>
       </c>
@@ -4505,10 +4511,10 @@
         <v>12</v>
       </c>
       <c r="H84" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="85" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="12">
         <v>44681</v>
       </c>
@@ -4530,11 +4536,11 @@
       <c r="G85" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H85" s="1" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="86" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="H85" s="2" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="13">
         <v>44681</v>
       </c>
@@ -4557,10 +4563,10 @@
         <v>12</v>
       </c>
       <c r="H86" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="87" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="12">
         <v>44681</v>
       </c>
@@ -4583,10 +4589,10 @@
         <v>12</v>
       </c>
       <c r="H87" s="2" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="88" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="13">
         <v>44681</v>
       </c>
@@ -4609,10 +4615,10 @@
         <v>12</v>
       </c>
       <c r="H88" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="89" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="13">
         <v>44682</v>
       </c>
@@ -4635,10 +4641,10 @@
         <v>12</v>
       </c>
       <c r="H89" s="2" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="90" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="11">
         <v>44684</v>
       </c>
@@ -4652,7 +4658,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="91" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:8" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="12">
         <v>44684</v>
       </c>
@@ -4678,7 +4684,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="13">
         <v>44684</v>
       </c>
@@ -4701,10 +4707,10 @@
         <v>12</v>
       </c>
       <c r="H92" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="93" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A93" s="12">
         <v>44684</v>
       </c>
@@ -4726,11 +4732,11 @@
       <c r="G93" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H93" s="1" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="94" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="H93" s="2" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="13">
         <v>44684</v>
       </c>
@@ -4753,10 +4759,10 @@
         <v>12</v>
       </c>
       <c r="H94" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="95" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="12">
         <v>44684</v>
       </c>
@@ -4778,11 +4784,11 @@
       <c r="G95" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H95" s="1" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="96" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="H95" s="2" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="13">
         <v>44684</v>
       </c>
@@ -4805,10 +4811,10 @@
         <v>12</v>
       </c>
       <c r="H96" s="1" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="97" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="13">
         <v>44686</v>
       </c>
@@ -4831,10 +4837,10 @@
         <v>12</v>
       </c>
       <c r="H97" s="2" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="98" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="13">
         <v>44690</v>
       </c>
@@ -4856,11 +4862,11 @@
       <c r="G98" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H98" s="2" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="99" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="H98" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="13">
         <v>44691</v>
       </c>
@@ -4882,11 +4888,11 @@
       <c r="G99" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H99" s="2" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="100" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="H99" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="12">
         <v>44692</v>
       </c>
@@ -4909,10 +4915,10 @@
         <v>12</v>
       </c>
       <c r="H100" s="2" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="101" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="12">
         <v>44696</v>
       </c>
@@ -4934,11 +4940,11 @@
       <c r="G101" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H101" s="1" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="102" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="H101" s="2" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="13">
         <v>44696</v>
       </c>
@@ -4960,11 +4966,11 @@
       <c r="G102" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H102" s="1" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="103" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="H102" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="12">
         <v>44697</v>
       </c>
@@ -4987,10 +4993,10 @@
         <v>12</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="104" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A104" s="13">
         <v>44697</v>
       </c>
@@ -5013,10 +5019,10 @@
         <v>12</v>
       </c>
       <c r="H104" s="2" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="105" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="105" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="11">
         <v>44704</v>
       </c>
@@ -5027,10 +5033,10 @@
         <v>173</v>
       </c>
       <c r="H105" s="8" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="106" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="106" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="11">
         <v>44704</v>
       </c>
@@ -5041,10 +5047,10 @@
         <v>116</v>
       </c>
       <c r="H106" s="8" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="107" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="107" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="13">
         <v>44707</v>
       </c>
@@ -5066,11 +5072,11 @@
       <c r="G107" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H107" s="2" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="108" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="H107" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="108" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="12">
         <v>44708</v>
       </c>
@@ -5093,10 +5099,10 @@
         <v>12</v>
       </c>
       <c r="H108" s="2" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="109" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="109" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="13">
         <v>44709</v>
       </c>
@@ -5119,10 +5125,10 @@
         <v>12</v>
       </c>
       <c r="H109" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="110" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="110" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="12">
         <v>44713</v>
       </c>
@@ -5145,10 +5151,10 @@
         <v>12</v>
       </c>
       <c r="H110" s="2" t="s">
-        <v>491</v>
-      </c>
-    </row>
-    <row r="111" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="111" spans="1:8" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="13">
         <v>44715</v>
       </c>
@@ -5174,7 +5180,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:8" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="12">
         <v>44715</v>
       </c>
@@ -5196,11 +5202,11 @@
       <c r="G112" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H112" s="2" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="113" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="H112" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="113" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="12">
         <v>44716</v>
       </c>
@@ -5223,10 +5229,10 @@
         <v>12</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="114" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="114" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="12">
         <v>44718</v>
       </c>
@@ -5248,11 +5254,11 @@
       <c r="G114" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H114" s="1" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="115" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+      <c r="H114" s="2" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="115" spans="1:8" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A115" s="13">
         <v>44720</v>
       </c>
@@ -5274,11 +5280,11 @@
       <c r="G115" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H115" s="1" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="116" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="H115" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="116" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="12">
         <v>44724</v>
       </c>
@@ -5300,11 +5306,11 @@
       <c r="G116" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H116" s="1" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="117" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="H116" s="2" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="117" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="13">
         <v>44724</v>
       </c>
@@ -5326,11 +5332,11 @@
       <c r="G117" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H117" s="2" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="118" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="H117" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="118" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="12">
         <v>44724</v>
       </c>
@@ -5353,10 +5359,10 @@
         <v>12</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="119" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="119" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="12">
         <v>44725</v>
       </c>
@@ -5378,11 +5384,11 @@
       <c r="G119" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H119" s="1" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="120" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="H119" s="2" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="120" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="13">
         <v>44725</v>
       </c>
@@ -5404,11 +5410,11 @@
       <c r="G120" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H120" s="2" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="121" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="H120" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="121" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="13">
         <v>44727</v>
       </c>
@@ -5430,11 +5436,11 @@
       <c r="G121" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H121" s="2" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="122" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="H121" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="122" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="12">
         <v>44727</v>
       </c>
@@ -5457,10 +5463,10 @@
         <v>12</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="123" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="123" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="13">
         <v>44727</v>
       </c>
@@ -5482,11 +5488,11 @@
       <c r="G123" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H123" s="2" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="124" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="H123" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="124" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="12">
         <v>44729</v>
       </c>
@@ -5509,10 +5515,10 @@
         <v>12</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="125" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="125" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="13">
         <v>44730</v>
       </c>
@@ -5534,11 +5540,11 @@
       <c r="G125" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H125" s="2" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="126" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+      <c r="H125" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="126" spans="1:8" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A126" s="13">
         <v>44731</v>
       </c>
@@ -5560,11 +5566,11 @@
       <c r="G126" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H126" s="2" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="127" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+      <c r="H126" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="127" spans="1:8" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="12">
         <v>44731</v>
       </c>
@@ -5587,10 +5593,10 @@
         <v>12</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="128" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="128" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="11">
         <v>44733</v>
       </c>
@@ -5601,10 +5607,10 @@
         <v>173</v>
       </c>
       <c r="H128" s="8" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="129" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="129" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="11">
         <v>44733</v>
       </c>
@@ -5615,10 +5621,10 @@
         <v>116</v>
       </c>
       <c r="H129" s="8" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="130" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="130" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="13">
         <v>44736</v>
       </c>
@@ -5640,11 +5646,11 @@
       <c r="G130" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H130" s="2" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="131" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="H130" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="131" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="12">
         <v>44736</v>
       </c>
@@ -5667,10 +5673,10 @@
         <v>12</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="132" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="132" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="13">
         <v>44736</v>
       </c>
@@ -5693,10 +5699,10 @@
         <v>12</v>
       </c>
       <c r="H132" s="2" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="133" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="133" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="12">
         <v>44736</v>
       </c>
@@ -5719,10 +5725,10 @@
         <v>12</v>
       </c>
       <c r="H133" s="2" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="134" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="134" spans="1:8" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="13">
         <v>44736</v>
       </c>
@@ -5744,11 +5750,11 @@
       <c r="G134" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H134" s="2" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="135" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="H134" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="135" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="12">
         <v>44737</v>
       </c>
@@ -5771,10 +5777,10 @@
         <v>12</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="136" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="136" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="13">
         <v>44737</v>
       </c>
@@ -5797,10 +5803,10 @@
         <v>12</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="137" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="137" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A137" s="12">
         <v>44737</v>
       </c>
@@ -5823,10 +5829,10 @@
         <v>12</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="138" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="138" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="13">
         <v>44738</v>
       </c>
@@ -5849,10 +5855,10 @@
         <v>12</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="139" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="139" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="12">
         <v>44739</v>
       </c>
@@ -5875,10 +5881,10 @@
         <v>12</v>
       </c>
       <c r="H139" s="2" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="140" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="140" spans="1:8" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="12">
         <v>44744</v>
       </c>
@@ -5904,7 +5910,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="141" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:8" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="13">
         <v>44745</v>
       </c>
@@ -5930,7 +5936,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="142" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="11">
         <v>44746</v>
       </c>
@@ -5944,7 +5950,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="143" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="12">
         <v>44747</v>
       </c>
@@ -5966,11 +5972,11 @@
       <c r="G143" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H143" s="1" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="144" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="H143" s="2" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="144" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="13">
         <v>44751</v>
       </c>
@@ -5993,10 +5999,10 @@
         <v>12</v>
       </c>
       <c r="H144" s="2" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="145" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="145" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="12">
         <v>44751</v>
       </c>
@@ -6019,10 +6025,10 @@
         <v>12</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="146" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="146" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="13">
         <v>44751</v>
       </c>
@@ -6045,10 +6051,10 @@
         <v>12</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="147" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="147" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="11">
         <v>44753</v>
       </c>
@@ -6059,10 +6065,10 @@
         <v>173</v>
       </c>
       <c r="H147" s="8" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="148" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="148" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" s="11">
         <v>44753</v>
       </c>
@@ -6073,10 +6079,10 @@
         <v>116</v>
       </c>
       <c r="H148" s="8" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="149" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="149" spans="1:8" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" s="12">
         <v>44753</v>
       </c>
@@ -6099,7 +6105,7 @@
         <v>12</v>
       </c>
       <c r="H149" s="2" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
     </row>
     <row r="150" spans="1:8" ht="32" x14ac:dyDescent="0.2">
@@ -6116,7 +6122,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="151" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" s="13">
         <v>44754</v>
       </c>
@@ -6139,10 +6145,10 @@
         <v>12</v>
       </c>
       <c r="H151" s="2" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="152" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" s="12">
         <v>44755</v>
       </c>
@@ -6165,10 +6171,10 @@
         <v>12</v>
       </c>
       <c r="H152" s="2" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" s="13">
         <v>44756</v>
       </c>
@@ -6191,10 +6197,10 @@
         <v>12</v>
       </c>
       <c r="H153" s="2" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="154" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" s="13">
         <v>44757</v>
       </c>
@@ -6217,10 +6223,10 @@
         <v>12</v>
       </c>
       <c r="H154" s="1" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" ht="80" x14ac:dyDescent="0.2">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" ht="80" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" s="13">
         <v>44758</v>
       </c>
@@ -6243,10 +6249,10 @@
         <v>12</v>
       </c>
       <c r="H155" s="2" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="156" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="156" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" s="12">
         <v>44758</v>
       </c>
@@ -6269,10 +6275,10 @@
         <v>12</v>
       </c>
       <c r="H156" s="2" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" s="12">
         <v>44759</v>
       </c>
@@ -6295,10 +6301,10 @@
         <v>12</v>
       </c>
       <c r="H157" s="1" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" s="12">
         <v>44759</v>
       </c>
@@ -6321,10 +6327,10 @@
         <v>12</v>
       </c>
       <c r="H158" s="2" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" s="13">
         <v>44760</v>
       </c>
@@ -6346,11 +6352,11 @@
       <c r="G159" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H159" s="2" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="H159" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" s="12">
         <v>44762</v>
       </c>
@@ -6373,10 +6379,10 @@
         <v>12</v>
       </c>
       <c r="H160" s="1" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" s="12">
         <v>44763</v>
       </c>
@@ -6398,11 +6404,11 @@
       <c r="G161" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H161" s="1" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="H161" s="2" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A162" s="13">
         <v>44763</v>
       </c>
@@ -6424,11 +6430,11 @@
       <c r="G162" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H162" s="1" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+      <c r="H162" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" s="13">
         <v>44765</v>
       </c>
@@ -6450,11 +6456,11 @@
       <c r="G163" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H163" s="1" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+      <c r="H163" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" s="12">
         <v>44765</v>
       </c>
@@ -6477,10 +6483,10 @@
         <v>439</v>
       </c>
       <c r="H164" s="2" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" s="13">
         <v>44765</v>
       </c>
@@ -6502,11 +6508,11 @@
       <c r="G165" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H165" s="2" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+      <c r="H165" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" s="13">
         <v>44766</v>
       </c>
@@ -6528,11 +6534,11 @@
       <c r="G166" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H166" s="2" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="H166" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" s="12">
         <v>44767</v>
       </c>
@@ -6555,10 +6561,10 @@
         <v>12</v>
       </c>
       <c r="H167" s="1" t="s">
-        <v>495</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" s="12">
         <v>44768</v>
       </c>
@@ -6584,7 +6590,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="169" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" s="12">
         <v>44768</v>
       </c>
@@ -6606,11 +6612,11 @@
       <c r="G169" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H169" s="1" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="H169" s="2" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" s="12">
         <v>44769</v>
       </c>
@@ -6632,11 +6638,11 @@
       <c r="G170" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H170" s="1" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="H170" s="2" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" s="13">
         <v>44769</v>
       </c>
@@ -6662,7 +6668,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="172" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" s="12">
         <v>44769</v>
       </c>
@@ -6688,7 +6694,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="173" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" s="13">
         <v>44769</v>
       </c>
@@ -6714,7 +6720,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="174" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" s="12">
         <v>44769</v>
       </c>
@@ -6740,7 +6746,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="175" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" s="13">
         <v>44769</v>
       </c>
@@ -6766,7 +6772,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="176" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" s="12">
         <v>44769</v>
       </c>
@@ -6792,7 +6798,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="177" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" s="13">
         <v>44769</v>
       </c>
@@ -6815,10 +6821,10 @@
         <v>12</v>
       </c>
       <c r="H177" s="2" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" s="13">
         <v>44772</v>
       </c>
@@ -6841,10 +6847,10 @@
         <v>12</v>
       </c>
       <c r="H178" s="2" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" s="12">
         <v>44773</v>
       </c>
@@ -6867,10 +6873,10 @@
         <v>12</v>
       </c>
       <c r="H179" s="1" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" s="12">
         <v>44774</v>
       </c>
@@ -6892,11 +6898,11 @@
       <c r="G180" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H180" s="1" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="H180" s="2" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" s="13">
         <v>44774</v>
       </c>
@@ -6918,11 +6924,11 @@
       <c r="G181" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H181" s="2" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="H181" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" s="13">
         <v>44775</v>
       </c>
@@ -6945,10 +6951,10 @@
         <v>12</v>
       </c>
       <c r="H182" s="2" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" s="13">
         <v>44776</v>
       </c>
@@ -6974,7 +6980,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="184" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" s="11">
         <v>44777</v>
       </c>
@@ -6988,7 +6994,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="185" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" s="12">
         <v>44777</v>
       </c>
@@ -7011,10 +7017,10 @@
         <v>12</v>
       </c>
       <c r="H185" s="1" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" s="13">
         <v>44778</v>
       </c>
@@ -7037,10 +7043,10 @@
         <v>12</v>
       </c>
       <c r="H186" s="2" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A187" s="13">
         <v>44779</v>
       </c>
@@ -7062,11 +7068,11 @@
       <c r="G187" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H187" s="2" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+      <c r="H187" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" s="12">
         <v>44779</v>
       </c>
@@ -7089,10 +7095,10 @@
         <v>12</v>
       </c>
       <c r="H188" s="1" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" s="11">
         <v>44782</v>
       </c>
@@ -7106,7 +7112,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="190" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" s="12">
         <v>44782</v>
       </c>
@@ -7128,11 +7134,11 @@
       <c r="G190" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H190" s="1" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="H190" s="2" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" s="12">
         <v>44782</v>
       </c>
@@ -7155,10 +7161,10 @@
         <v>12</v>
       </c>
       <c r="H191" s="1" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" s="13">
         <v>44783</v>
       </c>
@@ -7180,8 +7186,8 @@
       <c r="G192" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H192" s="2" t="s">
-        <v>484</v>
+      <c r="H192" s="1" t="s">
+        <v>481</v>
       </c>
     </row>
     <row r="193" spans="1:8" ht="32" x14ac:dyDescent="0.2">
@@ -7198,7 +7204,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="194" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:8" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" s="13">
         <v>44784</v>
       </c>
@@ -7221,10 +7227,10 @@
         <v>12</v>
       </c>
       <c r="H194" s="2" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" s="12">
         <v>44784</v>
       </c>
@@ -7247,10 +7253,10 @@
         <v>12</v>
       </c>
       <c r="H195" s="1" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="196" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="196" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" s="13">
         <v>44786</v>
       </c>
@@ -7273,10 +7279,10 @@
         <v>12</v>
       </c>
       <c r="H196" s="2" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="197" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="197" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" s="12">
         <v>44786</v>
       </c>
@@ -7299,10 +7305,10 @@
         <v>12</v>
       </c>
       <c r="H197" s="1" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" s="13">
         <v>44786</v>
       </c>
@@ -7324,11 +7330,11 @@
       <c r="G198" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H198" s="2" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+      <c r="H198" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" s="12">
         <v>44786</v>
       </c>
@@ -7351,10 +7357,10 @@
         <v>12</v>
       </c>
       <c r="H199" s="1" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" s="12">
         <v>44788</v>
       </c>
@@ -7380,12 +7386,12 @@
         <v>476</v>
       </c>
     </row>
-    <row r="201" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:8" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" s="13">
         <v>44788</v>
       </c>
       <c r="B201" s="2" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="C201" s="5">
         <v>12.1</v>
@@ -7403,15 +7409,15 @@
         <v>12</v>
       </c>
       <c r="H201" s="2" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" s="12">
         <v>44788</v>
       </c>
       <c r="B202" s="1" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="C202" s="4">
         <v>24.12</v>
@@ -7428,11 +7434,11 @@
       <c r="G202" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H202" s="1" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="H202" s="2" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" s="11">
         <v>44789</v>
       </c>
@@ -7443,10 +7449,10 @@
         <v>166</v>
       </c>
       <c r="H203" s="8" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" s="11">
         <v>44789</v>
       </c>
@@ -7457,10 +7463,10 @@
         <v>116</v>
       </c>
       <c r="H204" s="8" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" s="13">
         <v>44791</v>
       </c>
@@ -7483,10 +7489,10 @@
         <v>12</v>
       </c>
       <c r="H205" s="2" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" s="12">
         <v>44791</v>
       </c>
@@ -7508,11 +7514,11 @@
       <c r="G206" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H206" s="2" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="H206" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" s="13">
         <v>44793</v>
       </c>
@@ -7535,10 +7541,10 @@
         <v>12</v>
       </c>
       <c r="H207" s="2" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" s="12">
         <v>44793</v>
       </c>
@@ -7561,10 +7567,10 @@
         <v>12</v>
       </c>
       <c r="H208" s="1" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" s="13">
         <v>44799</v>
       </c>
@@ -7586,11 +7592,11 @@
       <c r="G209" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H209" s="2" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="H209" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" s="13">
         <v>44800</v>
       </c>
@@ -7613,10 +7619,10 @@
         <v>12</v>
       </c>
       <c r="H210" s="2" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" s="12">
         <v>44800</v>
       </c>
@@ -7639,10 +7645,10 @@
         <v>12</v>
       </c>
       <c r="H211" s="2" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A212" s="13">
         <v>44800</v>
       </c>
@@ -7665,10 +7671,10 @@
         <v>12</v>
       </c>
       <c r="H212" s="1" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" s="12">
         <v>44800</v>
       </c>
@@ -7691,10 +7697,10 @@
         <v>12</v>
       </c>
       <c r="H213" s="1" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" s="12">
         <v>44800</v>
       </c>
@@ -7716,11 +7722,11 @@
       <c r="G214" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H214" s="1" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+      <c r="H214" s="2" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" s="13">
         <v>44801</v>
       </c>
@@ -7742,11 +7748,11 @@
       <c r="G215" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H215" s="2" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="H215" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" s="12">
         <v>44801</v>
       </c>
@@ -7769,10 +7775,10 @@
         <v>12</v>
       </c>
       <c r="H216" s="1" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" s="13">
         <v>44803</v>
       </c>
@@ -7795,10 +7801,10 @@
         <v>12</v>
       </c>
       <c r="H217" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" s="12">
         <v>44803</v>
       </c>
@@ -7821,10 +7827,10 @@
         <v>12</v>
       </c>
       <c r="H218" s="1" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="219" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="219" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" s="13">
         <v>44803</v>
       </c>
@@ -7846,11 +7852,11 @@
       <c r="G219" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H219" s="2" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="220" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="H219" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="220" spans="1:8" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" s="13">
         <v>44804</v>
       </c>
@@ -7872,11 +7878,11 @@
       <c r="G220" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H220" s="2" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="221" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="H220" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="221" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" s="12">
         <v>44805</v>
       </c>
@@ -7899,10 +7905,10 @@
         <v>12</v>
       </c>
       <c r="H221" s="1" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="222" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="222" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" s="11">
         <v>44806</v>
       </c>
@@ -7916,7 +7922,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="223" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:8" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" s="13">
         <v>44807</v>
       </c>
@@ -7942,7 +7948,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="224" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" s="13">
         <v>44808</v>
       </c>
@@ -7964,11 +7970,11 @@
       <c r="G224" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H224" s="1" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="H224" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" s="12">
         <v>44808</v>
       </c>
@@ -7991,10 +7997,10 @@
         <v>12</v>
       </c>
       <c r="H225" s="1" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="226" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" s="13">
         <v>44810</v>
       </c>
@@ -8020,7 +8026,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="227" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" s="12">
         <v>44810</v>
       </c>
@@ -8043,10 +8049,10 @@
         <v>12</v>
       </c>
       <c r="H227" s="2" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="228" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" s="11">
         <v>44812</v>
       </c>
@@ -8057,10 +8063,10 @@
         <v>166</v>
       </c>
       <c r="H228" s="8" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="229" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" s="11">
         <v>44812</v>
       </c>
@@ -8071,10 +8077,10 @@
         <v>95</v>
       </c>
       <c r="H229" s="8" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" s="11">
         <v>44817</v>
       </c>
@@ -8088,7 +8094,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="231" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:8" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" s="13">
         <v>44818</v>
       </c>
@@ -8110,11 +8116,11 @@
       <c r="G231" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H231" s="2" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="232" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="H231" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" s="12">
         <v>44819</v>
       </c>
@@ -8137,10 +8143,10 @@
         <v>12</v>
       </c>
       <c r="H232" s="1" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" s="13">
         <v>44819</v>
       </c>
@@ -8166,7 +8172,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="234" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" s="12">
         <v>44819</v>
       </c>
@@ -8188,11 +8194,11 @@
       <c r="G234" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H234" s="1" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="235" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="H234" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" s="12">
         <v>44821</v>
       </c>
@@ -8215,10 +8221,10 @@
         <v>12</v>
       </c>
       <c r="H235" s="1" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="236" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" s="13">
         <v>44821</v>
       </c>
@@ -8241,10 +8247,10 @@
         <v>12</v>
       </c>
       <c r="H236" s="2" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="237" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="237" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A237" s="13">
         <v>44824</v>
       </c>
@@ -8266,11 +8272,11 @@
       <c r="G237" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H237" s="2" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="238" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="H237" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="238" spans="1:8" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" s="13">
         <v>44827</v>
       </c>
@@ -8292,11 +8298,11 @@
       <c r="G238" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H238" s="2" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="239" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+      <c r="H238" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="239" spans="1:8" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" s="12">
         <v>44827</v>
       </c>
@@ -8318,11 +8324,11 @@
       <c r="G239" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H239" s="2" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="240" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="H239" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="240" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" s="12">
         <v>44828</v>
       </c>
@@ -8345,10 +8351,10 @@
         <v>12</v>
       </c>
       <c r="H240" s="1" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="241" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="241" spans="1:8" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" s="12">
         <v>44829</v>
       </c>
@@ -8371,10 +8377,10 @@
         <v>12</v>
       </c>
       <c r="H241" s="1" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="242" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" s="13">
         <v>44829</v>
       </c>
@@ -8396,8 +8402,8 @@
       <c r="G242" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H242" s="2" t="s">
-        <v>486</v>
+      <c r="H242" s="1" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="243" spans="1:8" ht="32" x14ac:dyDescent="0.2">
@@ -8414,7 +8420,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="244" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:8" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" s="12">
         <v>44834</v>
       </c>
@@ -8436,11 +8442,11 @@
       <c r="G244" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H244" s="1" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="245" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="H244" s="2" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245" s="12">
         <v>44835</v>
       </c>
@@ -8462,11 +8468,11 @@
       <c r="G245" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H245" s="1" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="246" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="H245" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="246" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" s="13">
         <v>44835</v>
       </c>
@@ -8488,11 +8494,11 @@
       <c r="G246" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H246" s="2" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="247" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+      <c r="H246" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="247" spans="1:8" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" s="13">
         <v>44837</v>
       </c>
@@ -8518,12 +8524,12 @@
         <v>473</v>
       </c>
     </row>
-    <row r="248" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:8" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" s="12">
         <v>44838</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="C248" s="4">
         <v>74.52</v>
@@ -8540,11 +8546,11 @@
       <c r="G248" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H248" s="1" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="249" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="H248" s="2" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" s="11">
         <v>44839</v>
       </c>
@@ -8555,10 +8561,10 @@
         <v>166</v>
       </c>
       <c r="H249" s="8" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="250" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" s="11">
         <v>44839</v>
       </c>
@@ -8569,10 +8575,10 @@
         <v>95</v>
       </c>
       <c r="H250" s="8" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="251" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" s="11">
         <v>44840</v>
       </c>
@@ -8586,7 +8592,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="252" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252" s="13">
         <v>44841</v>
       </c>
@@ -8609,10 +8615,10 @@
         <v>12</v>
       </c>
       <c r="H252" s="1" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="253" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" s="12">
         <v>44841</v>
       </c>
@@ -8635,10 +8641,10 @@
         <v>12</v>
       </c>
       <c r="H253" s="1" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="254" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" s="13">
         <v>44841</v>
       </c>
@@ -8660,11 +8666,11 @@
       <c r="G254" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H254" s="2" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="255" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="H254" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" s="12">
         <v>44843</v>
       </c>
@@ -8687,10 +8693,10 @@
         <v>12</v>
       </c>
       <c r="H255" s="1" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="256" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" s="11">
         <v>44846</v>
       </c>
@@ -8704,7 +8710,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="257" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257" s="12">
         <v>44849</v>
       </c>
@@ -8730,7 +8736,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="258" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" s="12">
         <v>44849</v>
       </c>
@@ -8753,10 +8759,10 @@
         <v>12</v>
       </c>
       <c r="H258" s="1" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="259" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" s="13">
         <v>44849</v>
       </c>
@@ -8778,11 +8784,11 @@
       <c r="G259" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H259" s="2" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="260" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="H259" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260" s="12">
         <v>44849</v>
       </c>
@@ -8805,10 +8811,10 @@
         <v>12</v>
       </c>
       <c r="H260" s="1" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="261" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261" s="13">
         <v>44850</v>
       </c>
@@ -8831,10 +8837,10 @@
         <v>12</v>
       </c>
       <c r="H261" s="1" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="262" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262" s="13">
         <v>44851</v>
       </c>
@@ -8857,10 +8863,10 @@
         <v>12</v>
       </c>
       <c r="H262" s="2" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="263" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263" s="12">
         <v>44851</v>
       </c>
@@ -8883,10 +8889,10 @@
         <v>12</v>
       </c>
       <c r="H263" s="1" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="264" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A264" s="13">
         <v>44851</v>
       </c>
@@ -8908,11 +8914,11 @@
       <c r="G264" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H264" s="2" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="265" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="H264" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265" s="12">
         <v>44851</v>
       </c>
@@ -8935,10 +8941,10 @@
         <v>12</v>
       </c>
       <c r="H265" s="1" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="266" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266" s="13">
         <v>44851</v>
       </c>
@@ -8960,11 +8966,11 @@
       <c r="G266" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H266" s="1" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="267" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="H266" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267" s="12">
         <v>44852</v>
       </c>
@@ -8987,10 +8993,10 @@
         <v>12</v>
       </c>
       <c r="H267" s="1" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="268" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268" s="12">
         <v>44854</v>
       </c>
@@ -9013,10 +9019,10 @@
         <v>12</v>
       </c>
       <c r="H268" s="1" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="269" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269" s="13">
         <v>44856</v>
       </c>
@@ -9038,11 +9044,11 @@
       <c r="G269" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H269" s="2" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="270" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="H269" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270" s="12">
         <v>44857</v>
       </c>
@@ -9082,7 +9088,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="272" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" s="12">
         <v>44861</v>
       </c>
@@ -9104,11 +9110,11 @@
       <c r="G272" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H272" s="1" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="273" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+      <c r="H272" s="2" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" s="12">
         <v>44863</v>
       </c>
@@ -9131,10 +9137,10 @@
         <v>12</v>
       </c>
       <c r="H273" s="1" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="274" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274" s="13">
         <v>44863</v>
       </c>
@@ -9157,10 +9163,10 @@
         <v>12</v>
       </c>
       <c r="H274" s="1" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="275" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275" s="13">
         <v>44864</v>
       </c>
@@ -9183,10 +9189,10 @@
         <v>12</v>
       </c>
       <c r="H275" s="2" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="276" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" s="12">
         <v>44865</v>
       </c>
@@ -9208,11 +9214,11 @@
       <c r="G276" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H276" s="1" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="277" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="H276" s="2" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277" s="13">
         <v>44866</v>
       </c>
@@ -9235,10 +9241,10 @@
         <v>12</v>
       </c>
       <c r="H277" s="1" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="278" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278" s="12">
         <v>44867</v>
       </c>
@@ -9261,10 +9267,10 @@
         <v>12</v>
       </c>
       <c r="H278" s="1" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="279" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279" s="11">
         <v>44868</v>
       </c>
@@ -9278,7 +9284,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="280" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:8" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280" s="13">
         <v>44868</v>
       </c>
@@ -9304,7 +9310,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="281" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:8" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281" s="12">
         <v>44868</v>
       </c>
@@ -9327,10 +9333,10 @@
         <v>12</v>
       </c>
       <c r="H281" s="1" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="282" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282" s="13">
         <v>44868</v>
       </c>
@@ -9352,11 +9358,11 @@
       <c r="G282" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H282" s="2" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="283" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="H282" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283" s="12">
         <v>44870</v>
       </c>
@@ -9378,11 +9384,11 @@
       <c r="G283" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H283" s="1" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="284" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="H283" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284" s="12">
         <v>44874</v>
       </c>
@@ -9404,11 +9410,11 @@
       <c r="G284" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H284" s="1" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="285" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="H284" s="2" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285" s="12">
         <v>44878</v>
       </c>
@@ -9430,11 +9436,11 @@
       <c r="G285" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H285" s="1" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="286" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="H285" s="2" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286" s="13">
         <v>44878</v>
       </c>
@@ -9456,11 +9462,11 @@
       <c r="G286" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H286" s="2" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="287" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+      <c r="H286" s="1" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287" s="11">
         <v>44880</v>
       </c>
@@ -9474,7 +9480,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="288" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288" s="13">
         <v>44880</v>
       </c>
@@ -9500,7 +9506,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="289" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289" s="13">
         <v>44881</v>
       </c>
@@ -9522,11 +9528,11 @@
       <c r="G289" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H289" s="1" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="290" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="H289" s="2" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290" s="12">
         <v>44881</v>
       </c>
@@ -9549,10 +9555,10 @@
         <v>12</v>
       </c>
       <c r="H290" s="1" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="291" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291" s="12">
         <v>44882</v>
       </c>
@@ -9574,11 +9580,11 @@
       <c r="G291" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H291" s="1" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="292" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="H291" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A292" s="12">
         <v>44883</v>
       </c>
@@ -9601,10 +9607,10 @@
         <v>12</v>
       </c>
       <c r="H292" s="1" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="293" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A293" s="13">
         <v>44885</v>
       </c>
@@ -9626,16 +9632,16 @@
       <c r="G293" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H293" s="2" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="294" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+      <c r="H293" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294" s="12">
         <v>44886</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="C294" s="4">
         <v>26.9</v>
@@ -9652,11 +9658,11 @@
       <c r="G294" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H294" s="1" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="295" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="H294" s="2" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A295" s="11">
         <v>44888</v>
       </c>
@@ -9667,10 +9673,10 @@
         <v>166</v>
       </c>
       <c r="H295" s="8" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="296" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296" s="11">
         <v>44888</v>
       </c>
@@ -9681,7 +9687,7 @@
         <v>95</v>
       </c>
       <c r="H296" s="8" t="s">
-        <v>479</v>
+        <v>491</v>
       </c>
     </row>
     <row r="297" spans="1:8" ht="32" x14ac:dyDescent="0.2">
@@ -9698,7 +9704,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="298" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A298" s="13">
         <v>44888</v>
       </c>
@@ -9721,10 +9727,10 @@
         <v>12</v>
       </c>
       <c r="H298" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="299" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A299" s="12">
         <v>44890</v>
       </c>
@@ -9747,10 +9753,10 @@
         <v>12</v>
       </c>
       <c r="H299" s="1" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="300" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="300" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A300" s="13">
         <v>44891</v>
       </c>
@@ -9773,10 +9779,10 @@
         <v>12</v>
       </c>
       <c r="H300" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="301" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="301" spans="1:8" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A301" s="13">
         <v>44892</v>
       </c>
@@ -9802,7 +9808,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="302" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302" s="12">
         <v>44892</v>
       </c>
@@ -9825,10 +9831,10 @@
         <v>12</v>
       </c>
       <c r="H302" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="303" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="303" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303" s="13">
         <v>44892</v>
       </c>
@@ -9851,10 +9857,10 @@
         <v>12</v>
       </c>
       <c r="H303" s="1" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="304" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="304" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A304" s="12">
         <v>44892</v>
       </c>
@@ -9877,10 +9883,10 @@
         <v>12</v>
       </c>
       <c r="H304" s="1" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="305" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="305" spans="1:8" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A305" s="12">
         <v>44893</v>
       </c>
@@ -9903,10 +9909,10 @@
         <v>12</v>
       </c>
       <c r="H305" s="1" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="306" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A306" s="13">
         <v>44893</v>
       </c>
@@ -9929,10 +9935,10 @@
         <v>12</v>
       </c>
       <c r="H306" s="2" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="307" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="307" spans="1:8" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A307" s="13">
         <v>44896</v>
       </c>
@@ -9955,10 +9961,10 @@
         <v>12</v>
       </c>
       <c r="H307" s="2" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="308" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="308" spans="1:8" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A308" s="12">
         <v>44898</v>
       </c>
@@ -9984,7 +9990,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="309" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A309" s="13">
         <v>44899</v>
       </c>
@@ -10007,10 +10013,10 @@
         <v>12</v>
       </c>
       <c r="H309" s="1" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="310" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="310" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A310" s="11">
         <v>44900</v>
       </c>
@@ -10024,7 +10030,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="311" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:8" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A311" s="12">
         <v>44901</v>
       </c>
@@ -10047,10 +10053,10 @@
         <v>12</v>
       </c>
       <c r="H311" s="1" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="312" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="312" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A312" s="11">
         <v>44903</v>
       </c>
@@ -10061,10 +10067,10 @@
         <v>166</v>
       </c>
       <c r="H312" s="8" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="313" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="313" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A313" s="11">
         <v>44903</v>
       </c>
@@ -10078,7 +10084,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="314" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A314" s="11">
         <v>44904</v>
       </c>
@@ -10092,7 +10098,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="315" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A315" s="13">
         <v>44905</v>
       </c>
@@ -10115,10 +10121,10 @@
         <v>12</v>
       </c>
       <c r="H315" s="1" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="316" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="316" spans="1:8" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A316" s="12">
         <v>44905</v>
       </c>
@@ -10141,10 +10147,10 @@
         <v>12</v>
       </c>
       <c r="H316" s="1" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="317" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="317" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A317" s="13">
         <v>44905</v>
       </c>
@@ -10167,10 +10173,10 @@
         <v>12</v>
       </c>
       <c r="H317" s="2" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="318" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="318" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A318" s="13">
         <v>44906</v>
       </c>
@@ -10192,11 +10198,11 @@
       <c r="G318" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H318" s="1" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="319" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="H318" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="319" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319" s="12">
         <v>44907</v>
       </c>
@@ -10219,10 +10225,10 @@
         <v>12</v>
       </c>
       <c r="H319" s="1" t="s">
-        <v>484</v>
-      </c>
-    </row>
-    <row r="320" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="320" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A320" s="12">
         <v>44908</v>
       </c>
@@ -10244,11 +10250,11 @@
       <c r="G320" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H320" s="1" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="321" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="H320" s="2" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A321" s="12">
         <v>44910</v>
       </c>
@@ -10270,11 +10276,11 @@
       <c r="G321" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H321" s="1" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="322" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="H321" s="2" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A322" s="13">
         <v>44910</v>
       </c>
@@ -10300,7 +10306,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="323" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:8" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A323" s="12">
         <v>44915</v>
       </c>
@@ -10323,10 +10329,10 @@
         <v>12</v>
       </c>
       <c r="H323" s="1" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="324" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A324" s="13">
         <v>44916</v>
       </c>
@@ -10348,8 +10354,8 @@
       <c r="G324" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H324" s="1" t="s">
-        <v>494</v>
+      <c r="H324" s="2" t="s">
+        <v>489</v>
       </c>
     </row>
     <row r="325" spans="1:8" ht="32" x14ac:dyDescent="0.2">
@@ -10366,7 +10372,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="326" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A326" s="12">
         <v>44918</v>
       </c>
@@ -10388,11 +10394,11 @@
       <c r="G326" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H326" s="1" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="327" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="H326" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A327" s="13">
         <v>44918</v>
       </c>
@@ -10415,15 +10421,15 @@
         <v>12</v>
       </c>
       <c r="H327" s="1" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="328" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8" ht="64" hidden="1" x14ac:dyDescent="0.2">
       <c r="A328" s="12">
         <v>44918</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>489</v>
+        <v>480</v>
       </c>
       <c r="C328" s="4">
         <v>64.680000000000007</v>
@@ -10440,11 +10446,11 @@
       <c r="G328" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H328" s="1" t="s">
-        <v>487</v>
-      </c>
-    </row>
-    <row r="329" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="H328" s="2" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A329" s="13">
         <v>44919</v>
       </c>
@@ -10466,11 +10472,11 @@
       <c r="G329" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H329" s="1" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="330" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="H329" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A330" s="13">
         <v>44920</v>
       </c>
@@ -10492,11 +10498,11 @@
       <c r="G330" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H330" s="1" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="331" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="H330" s="2" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A331" s="12">
         <v>44920</v>
       </c>
@@ -10518,11 +10524,11 @@
       <c r="G331" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="H331" s="1" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="332" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="H331" s="2" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A332" s="12">
         <v>44922</v>
       </c>
@@ -10545,10 +10551,10 @@
         <v>12</v>
       </c>
       <c r="H332" s="1" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="333" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8" ht="48" hidden="1" x14ac:dyDescent="0.2">
       <c r="A333" s="13">
         <v>44925</v>
       </c>
@@ -10570,11 +10576,11 @@
       <c r="G333" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H333" s="2" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="334" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="H333" s="1" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8" ht="32" hidden="1" x14ac:dyDescent="0.2">
       <c r="A334" s="12">
         <v>44925</v>
       </c>
@@ -10597,10 +10603,10 @@
         <v>12</v>
       </c>
       <c r="H334" s="1" t="s">
-        <v>486</v>
-      </c>
-    </row>
-    <row r="335" spans="1:8" ht="16" x14ac:dyDescent="0.2">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A335" s="15">
         <v>44926</v>
       </c>
